--- a/reformat.xlsx
+++ b/reformat.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/teresewang/Desktop/python_excel_project/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/teresewang/Desktop/excel_project-/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6768620-0712-F74B-83D9-77B831CB4EF0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A87402EE-45F5-0549-8CC4-9CD704D053FD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1340" yWindow="460" windowWidth="16180" windowHeight="18560" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -164,7 +164,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="861" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="858" uniqueCount="82">
   <si>
     <t>Actual</t>
   </si>
@@ -338,9 +338,6 @@
   </si>
   <si>
     <t>Average comp</t>
-  </si>
-  <si>
-    <t>N/A</t>
   </si>
   <si>
     <t>Cost Type</t>
@@ -1833,8 +1830,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K164"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="C84" sqref="C74:C84"/>
+    <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
+      <selection activeCell="D79" sqref="D79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
@@ -3240,8 +3237,8 @@
       <c r="D87" s="32">
         <v>44105</v>
       </c>
-      <c r="E87" s="27" t="s">
-        <v>58</v>
+      <c r="E87" s="27">
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.2">
@@ -3291,8 +3288,8 @@
       <c r="D90" s="32">
         <v>44105</v>
       </c>
-      <c r="E90" s="27" t="s">
-        <v>58</v>
+      <c r="E90" s="27">
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.2">
@@ -3342,8 +3339,8 @@
       <c r="D93" s="32">
         <v>44105</v>
       </c>
-      <c r="E93" s="27" t="s">
-        <v>58</v>
+      <c r="E93" s="27">
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.2">
@@ -3661,16 +3658,16 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" t="s">
         <v>59</v>
-      </c>
-      <c r="B1" t="s">
-        <v>60</v>
       </c>
       <c r="C1" t="s">
         <v>48</v>
       </c>
       <c r="D1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E1" t="s">
         <v>49</v>
@@ -3681,16 +3678,16 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B2" t="s">
         <v>62</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
         <v>63</v>
-      </c>
-      <c r="C2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" t="s">
-        <v>64</v>
       </c>
       <c r="E2" s="20">
         <v>43800</v>
@@ -3701,16 +3698,16 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C3" t="s">
         <v>0</v>
       </c>
       <c r="D3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E3" s="20">
         <v>43800</v>
@@ -3721,16 +3718,16 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B4" t="s">
         <v>62</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" t="s">
         <v>63</v>
-      </c>
-      <c r="C4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" t="s">
-        <v>64</v>
       </c>
       <c r="E4" s="20">
         <v>43831</v>
@@ -3741,16 +3738,16 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C5" t="s">
         <v>0</v>
       </c>
       <c r="D5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E5" s="20">
         <v>43831</v>
@@ -3761,16 +3758,16 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B6" t="s">
         <v>62</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" t="s">
         <v>63</v>
-      </c>
-      <c r="C6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D6" t="s">
-        <v>64</v>
       </c>
       <c r="E6" s="20">
         <v>43862</v>
@@ -3781,16 +3778,16 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C7" t="s">
         <v>0</v>
       </c>
       <c r="D7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E7" s="20">
         <v>43862</v>
@@ -3801,16 +3798,16 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B8" t="s">
         <v>62</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D8" t="s">
         <v>63</v>
-      </c>
-      <c r="C8" t="s">
-        <v>0</v>
-      </c>
-      <c r="D8" t="s">
-        <v>64</v>
       </c>
       <c r="E8" s="20">
         <v>43891</v>
@@ -3821,16 +3818,16 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C9" t="s">
         <v>0</v>
       </c>
       <c r="D9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E9" s="20">
         <v>43891</v>
@@ -3841,16 +3838,16 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B10" t="s">
         <v>62</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
+        <v>0</v>
+      </c>
+      <c r="D10" t="s">
         <v>63</v>
-      </c>
-      <c r="C10" t="s">
-        <v>0</v>
-      </c>
-      <c r="D10" t="s">
-        <v>64</v>
       </c>
       <c r="E10" s="20">
         <v>43922</v>
@@ -3861,16 +3858,16 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C11" t="s">
         <v>0</v>
       </c>
       <c r="D11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E11" s="20">
         <v>43922</v>
@@ -3881,16 +3878,16 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B12" t="s">
         <v>62</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D12" t="s">
         <v>63</v>
-      </c>
-      <c r="C12" t="s">
-        <v>0</v>
-      </c>
-      <c r="D12" t="s">
-        <v>64</v>
       </c>
       <c r="E12" s="20">
         <v>43952</v>
@@ -3901,16 +3898,16 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C13" t="s">
         <v>0</v>
       </c>
       <c r="D13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E13" s="20">
         <v>43952</v>
@@ -3921,16 +3918,16 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
+        <v>61</v>
+      </c>
+      <c r="B14" t="s">
         <v>62</v>
-      </c>
-      <c r="B14" t="s">
-        <v>63</v>
       </c>
       <c r="C14" t="s">
         <v>1</v>
       </c>
       <c r="D14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E14" s="20">
         <v>43983</v>
@@ -3941,16 +3938,16 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C15" t="s">
         <v>1</v>
       </c>
       <c r="D15" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E15" s="20">
         <v>43983</v>
@@ -3961,16 +3958,16 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
+        <v>61</v>
+      </c>
+      <c r="B16" t="s">
         <v>62</v>
-      </c>
-      <c r="B16" t="s">
-        <v>63</v>
       </c>
       <c r="C16" t="s">
         <v>1</v>
       </c>
       <c r="D16" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E16" s="20">
         <v>44105</v>
@@ -3981,16 +3978,16 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C17" t="s">
         <v>1</v>
       </c>
       <c r="D17" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E17" s="20">
         <v>44105</v>
@@ -4025,13 +4022,13 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B1" t="s">
         <v>48</v>
       </c>
       <c r="C1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D1" t="s">
         <v>49</v>
@@ -4048,7 +4045,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D2" s="20">
         <v>43770</v>
@@ -4059,13 +4056,13 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D3" s="20">
         <v>43770</v>
@@ -4076,13 +4073,13 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D4" s="20">
         <v>43770</v>
@@ -4093,13 +4090,13 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D5" s="20">
         <v>43770</v>
@@ -4110,13 +4107,13 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D6" s="20">
         <v>43770</v>
@@ -4127,13 +4124,13 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D7" s="20">
         <v>43770</v>
@@ -4144,13 +4141,13 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D8" s="20">
         <v>43770</v>
@@ -4161,13 +4158,13 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D9" s="20">
         <v>43770</v>
@@ -4178,13 +4175,13 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D10" s="20">
         <v>43770</v>
@@ -4195,13 +4192,13 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D11" s="20">
         <v>43770</v>
@@ -4212,13 +4209,13 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D12" s="20">
         <v>43770</v>
@@ -4235,7 +4232,7 @@
         <v>0</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D14" s="20">
         <v>43800</v>
@@ -4254,13 +4251,13 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D15" s="20">
         <v>43800</v>
@@ -4279,13 +4276,13 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D16" s="20">
         <v>43800</v>
@@ -4304,13 +4301,13 @@
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D17" s="20">
         <v>43800</v>
@@ -4329,13 +4326,13 @@
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D18" s="20">
         <v>43800</v>
@@ -4354,13 +4351,13 @@
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D19" s="20">
         <v>43800</v>
@@ -4379,13 +4376,13 @@
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" s="10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D20" s="20">
         <v>43800</v>
@@ -4400,13 +4397,13 @@
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D21" s="20">
         <v>43800</v>
@@ -4421,13 +4418,13 @@
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D22" s="20">
         <v>43800</v>
@@ -4442,13 +4439,13 @@
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D23" s="20">
         <v>43800</v>
@@ -4463,13 +4460,13 @@
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D24" s="20">
         <v>43800</v>
@@ -4501,7 +4498,7 @@
         <v>0</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D26" s="20">
         <v>43831</v>
@@ -4510,13 +4507,13 @@
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D27" s="20">
         <v>43831</v>
@@ -4527,13 +4524,13 @@
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D28" s="20">
         <v>43831</v>
@@ -4545,13 +4542,13 @@
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D29" s="20">
         <v>43831</v>
@@ -4563,13 +4560,13 @@
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D30" s="20">
         <v>43831</v>
@@ -4582,13 +4579,13 @@
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D31" s="20">
         <v>43831</v>
@@ -4600,13 +4597,13 @@
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32" s="10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D32" s="20">
         <v>43831</v>
@@ -4618,13 +4615,13 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D33" s="20">
         <v>43831</v>
@@ -4636,13 +4633,13 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D34" s="20">
         <v>43831</v>
@@ -4654,13 +4651,13 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D35" s="20">
         <v>43831</v>
@@ -4671,13 +4668,13 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D36" s="20">
         <v>43831</v>
@@ -4699,7 +4696,7 @@
         <v>0</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D38" s="20">
         <v>43862</v>
@@ -4708,13 +4705,13 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D39" s="20">
         <v>43862</v>
@@ -4725,13 +4722,13 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D40" s="20">
         <v>43862</v>
@@ -4742,13 +4739,13 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B41" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D41" s="20">
         <v>43862</v>
@@ -4759,13 +4756,13 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B42" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D42" s="20">
         <v>43862</v>
@@ -4776,13 +4773,13 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B43" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D43" s="20">
         <v>43862</v>
@@ -4793,13 +4790,13 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" s="10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B44" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D44" s="20">
         <v>43862</v>
@@ -4810,13 +4807,13 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B45" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D45" s="20">
         <v>43862</v>
@@ -4827,13 +4824,13 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B46" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D46" s="20">
         <v>43862</v>
@@ -4844,13 +4841,13 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B47" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D47" s="20">
         <v>43862</v>
@@ -4861,13 +4858,13 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B48" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D48" s="20">
         <v>43862</v>
@@ -4889,7 +4886,7 @@
         <v>0</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D50" s="20">
         <v>43891</v>
@@ -4898,13 +4895,13 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B51" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D51" s="20">
         <v>43891</v>
@@ -4915,13 +4912,13 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B52" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D52" s="20">
         <v>43891</v>
@@ -4932,13 +4929,13 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B53" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D53" s="20">
         <v>43891</v>
@@ -4949,13 +4946,13 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B54" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D54" s="20">
         <v>43891</v>
@@ -4966,13 +4963,13 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B55" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D55" s="20">
         <v>43891</v>
@@ -4983,13 +4980,13 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" s="10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B56" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D56" s="20">
         <v>43891</v>
@@ -5000,13 +4997,13 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B57" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D57" s="20">
         <v>43891</v>
@@ -5017,13 +5014,13 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B58" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D58" s="20">
         <v>43891</v>
@@ -5034,13 +5031,13 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B59" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D59" s="20">
         <v>43891</v>
@@ -5051,13 +5048,13 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B60" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D60" s="20">
         <v>43891</v>
@@ -5079,7 +5076,7 @@
         <v>0</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D62" s="20">
         <v>43922</v>
@@ -5088,13 +5085,13 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B63" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D63" s="20">
         <v>43922</v>
@@ -5105,13 +5102,13 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B64" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D64" s="20">
         <v>43922</v>
@@ -5122,13 +5119,13 @@
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B65" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D65" s="20">
         <v>43922</v>
@@ -5139,13 +5136,13 @@
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B66" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D66" s="20">
         <v>43922</v>
@@ -5156,13 +5153,13 @@
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B67" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D67" s="20">
         <v>43922</v>
@@ -5173,13 +5170,13 @@
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" s="10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B68" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D68" s="20">
         <v>43922</v>
@@ -5190,13 +5187,13 @@
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B69" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D69" s="20">
         <v>43922</v>
@@ -5207,13 +5204,13 @@
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B70" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D70" s="20">
         <v>43922</v>
@@ -5224,13 +5221,13 @@
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B71" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D71" s="20">
         <v>43922</v>
@@ -5241,13 +5238,13 @@
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B72" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D72" s="20">
         <v>43922</v>
@@ -5269,7 +5266,7 @@
         <v>0</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D74" s="20">
         <v>43952</v>
@@ -5278,13 +5275,13 @@
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B75" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D75" s="20">
         <v>43952</v>
@@ -5295,13 +5292,13 @@
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B76" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D76" s="20">
         <v>43952</v>
@@ -5312,13 +5309,13 @@
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B77" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D77" s="20">
         <v>43952</v>
@@ -5329,13 +5326,13 @@
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B78" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D78" s="20">
         <v>43952</v>
@@ -5346,13 +5343,13 @@
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B79" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D79" s="20">
         <v>43952</v>
@@ -5363,13 +5360,13 @@
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80" s="10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B80" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D80" s="20">
         <v>43952</v>
@@ -5380,13 +5377,13 @@
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B81" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D81" s="20">
         <v>43952</v>
@@ -5397,13 +5394,13 @@
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B82" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D82" s="20">
         <v>43952</v>
@@ -5414,13 +5411,13 @@
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B83" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D83" s="20">
         <v>43952</v>
@@ -5431,13 +5428,13 @@
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B84" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D84" s="20">
         <v>43952</v>
@@ -5452,7 +5449,7 @@
         <v>1</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D86" s="20">
         <v>43983</v>
@@ -5461,13 +5458,13 @@
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B87" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D87" s="20">
         <v>43983</v>
@@ -5478,13 +5475,13 @@
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B88" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D88" s="20">
         <v>43983</v>
@@ -5495,13 +5492,13 @@
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B89" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D89" s="20">
         <v>43983</v>
@@ -5512,13 +5509,13 @@
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B90" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D90" s="20">
         <v>43983</v>
@@ -5529,13 +5526,13 @@
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B91" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D91" s="20">
         <v>43983</v>
@@ -5546,13 +5543,13 @@
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92" s="10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B92" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D92" s="20">
         <v>43983</v>
@@ -5563,13 +5560,13 @@
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B93" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D93" s="20">
         <v>43983</v>
@@ -5580,13 +5577,13 @@
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B94" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D94" s="20">
         <v>43983</v>
@@ -5597,13 +5594,13 @@
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B95" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D95" s="20">
         <v>43983</v>
@@ -5614,13 +5611,13 @@
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B96" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D96" s="20">
         <v>43983</v>
@@ -5635,7 +5632,7 @@
         <v>1</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D98" s="20">
         <v>44105</v>
@@ -5644,13 +5641,13 @@
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A99" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B99" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D99" s="20">
         <v>44105</v>
@@ -5661,13 +5658,13 @@
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A100" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B100" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D100" s="20">
         <v>44105</v>
@@ -5678,13 +5675,13 @@
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A101" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B101" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D101" s="20">
         <v>44105</v>
@@ -5695,13 +5692,13 @@
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A102" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B102" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D102" s="20">
         <v>44105</v>
@@ -5712,13 +5709,13 @@
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A103" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B103" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D103" s="20">
         <v>44105</v>
@@ -5729,13 +5726,13 @@
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A104" s="10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B104" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D104" s="20">
         <v>44105</v>
@@ -5746,13 +5743,13 @@
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A105" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B105" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D105" s="20">
         <v>44105</v>
@@ -5763,13 +5760,13 @@
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A106" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B106" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D106" s="20">
         <v>44105</v>
@@ -5780,13 +5777,13 @@
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A107" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B107" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D107" s="20">
         <v>44105</v>
@@ -5797,13 +5794,13 @@
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A108" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B108" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D108" s="20">
         <v>44105</v>
@@ -5842,12 +5839,12 @@
         <v>49</v>
       </c>
       <c r="D1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
@@ -5861,7 +5858,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B3" t="s">
         <v>0</v>
@@ -5875,7 +5872,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B4" t="s">
         <v>0</v>
@@ -5889,7 +5886,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B5" t="s">
         <v>0</v>
@@ -5903,7 +5900,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B6" t="s">
         <v>0</v>
@@ -5932,7 +5929,7 @@
     <row r="8" spans="1:4" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B9" t="s">
         <v>0</v>
@@ -5946,7 +5943,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B10" t="s">
         <v>0</v>
@@ -5960,7 +5957,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B11" t="s">
         <v>0</v>
@@ -5974,7 +5971,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B12" t="s">
         <v>0</v>
@@ -5988,7 +5985,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B13" t="s">
         <v>0</v>
@@ -6017,7 +6014,7 @@
     <row r="15" spans="1:4" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B16" t="s">
         <v>0</v>
@@ -6031,7 +6028,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B17" t="s">
         <v>0</v>
@@ -6045,7 +6042,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B18" t="s">
         <v>0</v>
@@ -6059,7 +6056,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B19" t="s">
         <v>0</v>
@@ -6073,7 +6070,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B20" t="s">
         <v>0</v>
@@ -6102,7 +6099,7 @@
     <row r="22" spans="1:4" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B23" t="s">
         <v>0</v>
@@ -6116,7 +6113,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B24" t="s">
         <v>0</v>
@@ -6130,7 +6127,7 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B25" t="s">
         <v>0</v>
@@ -6144,7 +6141,7 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B26" t="s">
         <v>0</v>
@@ -6158,7 +6155,7 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B27" t="s">
         <v>0</v>
@@ -6186,7 +6183,7 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B30" t="s">
         <v>0</v>
@@ -6200,7 +6197,7 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="25" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B31" t="s">
         <v>0</v>
@@ -6214,7 +6211,7 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="26" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B32" t="s">
         <v>0</v>
@@ -6228,7 +6225,7 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B33" t="s">
         <v>0</v>
@@ -6242,7 +6239,7 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="26" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B34" t="s">
         <v>0</v>
@@ -6270,7 +6267,7 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B37" t="s">
         <v>0</v>
@@ -6284,7 +6281,7 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="25" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B38" t="s">
         <v>0</v>
@@ -6298,7 +6295,7 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="26" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B39" t="s">
         <v>0</v>
@@ -6312,7 +6309,7 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B40" t="s">
         <v>0</v>
@@ -6326,7 +6323,7 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" s="26" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B41" t="s">
         <v>0</v>
@@ -6354,7 +6351,7 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B44" t="s">
         <v>1</v>
@@ -6368,7 +6365,7 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="25" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B45" t="s">
         <v>1</v>
@@ -6382,7 +6379,7 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" s="26" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B46" t="s">
         <v>1</v>
@@ -6396,7 +6393,7 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B47" t="s">
         <v>1</v>
@@ -6410,7 +6407,7 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" s="26" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B48" t="s">
         <v>1</v>
@@ -6438,7 +6435,7 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B51" t="s">
         <v>1</v>
@@ -6452,7 +6449,7 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" s="25" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B52" t="s">
         <v>1</v>
@@ -6466,7 +6463,7 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" s="26" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B53" t="s">
         <v>1</v>
@@ -6480,7 +6477,7 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B54" t="s">
         <v>1</v>
@@ -6494,7 +6491,7 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" s="26" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B55" t="s">
         <v>1</v>

--- a/reformat.xlsx
+++ b/reformat.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/teresewang/Desktop/excel_project-/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A87402EE-45F5-0549-8CC4-9CD704D053FD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC07CF55-0D7A-574B-B0AF-E28909EA71FD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1340" yWindow="460" windowWidth="16180" windowHeight="18560" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15580" yWindow="1060" windowWidth="16180" windowHeight="16820" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AUM and Account metrics" sheetId="1" r:id="rId1"/>
@@ -164,7 +164,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="858" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="861" uniqueCount="83">
   <si>
     <t>Actual</t>
   </si>
@@ -338,6 +338,9 @@
   </si>
   <si>
     <t>Average comp</t>
+  </si>
+  <si>
+    <t>N/A</t>
   </si>
   <si>
     <t>Cost Type</t>
@@ -645,7 +648,7 @@
     <xf numFmtId="166" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="166" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -691,6 +694,8 @@
     <xf numFmtId="164" fontId="2" fillId="3" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="3" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="cd1" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
@@ -1830,8 +1835,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K164"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
-      <selection activeCell="D79" sqref="D79"/>
+    <sheetView tabSelected="1" topLeftCell="A71" workbookViewId="0">
+      <selection activeCell="F107" sqref="F107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
@@ -3221,7 +3226,7 @@
         <v>44105</v>
       </c>
       <c r="E86" s="22">
-        <v>814973300.29092777</v>
+        <v>853133257.67212546</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.2">
@@ -3237,8 +3242,8 @@
       <c r="D87" s="32">
         <v>44105</v>
       </c>
-      <c r="E87" s="27">
-        <v>0</v>
+      <c r="E87" s="27" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.2">
@@ -3255,7 +3260,7 @@
         <v>44105</v>
       </c>
       <c r="E88" s="23">
-        <v>4835438.6647223271</v>
+        <v>4665782.8002243107</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.2">
@@ -3272,7 +3277,7 @@
         <v>44105</v>
       </c>
       <c r="E89" s="23">
-        <v>974607245.70873833</v>
+        <v>1020241833.917181</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.2">
@@ -3288,8 +3293,8 @@
       <c r="D90" s="32">
         <v>44105</v>
       </c>
-      <c r="E90" s="27">
-        <v>0</v>
+      <c r="E90" s="27" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.2">
@@ -3306,7 +3311,7 @@
         <v>44105</v>
       </c>
       <c r="E91" s="23">
-        <v>5782586.4444102058</v>
+        <v>5579699.0188249489</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.2">
@@ -3323,7 +3328,7 @@
         <v>44105</v>
       </c>
       <c r="E92" s="23">
-        <v>4975626464.9340849</v>
+        <v>5208603046.8403444</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.2">
@@ -3339,8 +3344,8 @@
       <c r="D93" s="32">
         <v>44105</v>
       </c>
-      <c r="E93" s="27">
-        <v>0</v>
+      <c r="E93" s="27" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.2">
@@ -3357,7 +3362,7 @@
         <v>44105</v>
       </c>
       <c r="E94" s="23">
-        <v>29521625.531988949</v>
+        <v>28485831.83294842</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.2">
@@ -3374,7 +3379,7 @@
         <v>44105</v>
       </c>
       <c r="E95" s="23">
-        <v>146541.85951184211</v>
+        <v>139551.71574631581</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.2">
@@ -3391,18 +3396,19 @@
         <v>44105</v>
       </c>
       <c r="E96" s="23">
-        <v>210119.78561974221</v>
+        <v>218761.18249113401</v>
       </c>
     </row>
     <row r="97" spans="4:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D97" s="32"/>
       <c r="E97" s="32"/>
+      <c r="F97" s="33"/>
     </row>
     <row r="98" spans="4:6" x14ac:dyDescent="0.2">
       <c r="F98" s="22"/>
     </row>
     <row r="99" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="F99" s="27"/>
+      <c r="F99" s="34"/>
     </row>
     <row r="100" spans="4:6" x14ac:dyDescent="0.2">
       <c r="F100" s="23"/>
@@ -3411,7 +3417,7 @@
       <c r="F101" s="23"/>
     </row>
     <row r="102" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="F102" s="27"/>
+      <c r="F102" s="34"/>
     </row>
     <row r="103" spans="4:6" x14ac:dyDescent="0.2">
       <c r="F103" s="23"/>
@@ -3420,7 +3426,7 @@
       <c r="F104" s="23"/>
     </row>
     <row r="105" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="F105" s="27"/>
+      <c r="F105" s="34"/>
     </row>
     <row r="106" spans="4:6" x14ac:dyDescent="0.2">
       <c r="F106" s="23"/>
@@ -3434,80 +3440,96 @@
     <row r="109" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D109" s="32"/>
       <c r="E109" s="32"/>
+      <c r="F109" s="33"/>
     </row>
     <row r="110" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D110" s="32"/>
       <c r="E110" s="32"/>
+      <c r="F110" s="33"/>
     </row>
     <row r="111" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D111" s="32"/>
       <c r="E111" s="32"/>
+      <c r="F111" s="33"/>
     </row>
     <row r="112" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D112" s="32"/>
       <c r="E112" s="32"/>
-    </row>
-    <row r="113" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="F112" s="33"/>
+    </row>
+    <row r="113" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D113" s="32"/>
       <c r="E113" s="32"/>
-    </row>
-    <row r="114" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="F113" s="33"/>
+    </row>
+    <row r="114" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D114" s="32"/>
       <c r="E114" s="32"/>
-    </row>
-    <row r="115" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="F114" s="33"/>
+    </row>
+    <row r="115" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D115" s="32"/>
       <c r="E115" s="32"/>
-    </row>
-    <row r="116" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="F115" s="33"/>
+    </row>
+    <row r="116" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D116" s="32"/>
       <c r="E116" s="32"/>
-    </row>
-    <row r="117" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="F116" s="33"/>
+    </row>
+    <row r="117" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D117" s="32"/>
       <c r="E117" s="32"/>
-    </row>
-    <row r="118" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="F117" s="33"/>
+    </row>
+    <row r="118" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D118" s="32"/>
       <c r="E118" s="32"/>
-    </row>
-    <row r="119" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="F118" s="33"/>
+    </row>
+    <row r="119" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D119" s="32"/>
       <c r="E119" s="32"/>
-    </row>
-    <row r="120" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="F119" s="33"/>
+    </row>
+    <row r="120" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D120" s="32"/>
       <c r="E120" s="32"/>
-    </row>
-    <row r="121" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="F120" s="33"/>
+    </row>
+    <row r="121" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D121" s="32"/>
       <c r="E121" s="32"/>
-    </row>
-    <row r="122" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="F121" s="33"/>
+    </row>
+    <row r="122" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D122" s="32"/>
       <c r="E122" s="32"/>
-    </row>
-    <row r="123" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="F122" s="33"/>
+    </row>
+    <row r="123" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D123" s="32"/>
       <c r="E123" s="32"/>
-    </row>
-    <row r="124" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="F123" s="33"/>
+    </row>
+    <row r="124" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D124" s="32"/>
       <c r="E124" s="32"/>
-    </row>
-    <row r="125" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="F124" s="33"/>
+    </row>
+    <row r="125" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D125" s="32"/>
       <c r="E125" s="32"/>
     </row>
-    <row r="126" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="126" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D126" s="32"/>
       <c r="E126" s="32"/>
     </row>
-    <row r="127" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="127" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D127" s="32"/>
       <c r="E127" s="32"/>
     </row>
-    <row r="128" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="128" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D128" s="32"/>
       <c r="E128" s="32"/>
     </row>
@@ -3658,16 +3680,16 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C1" t="s">
         <v>48</v>
       </c>
       <c r="D1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E1" t="s">
         <v>49</v>
@@ -3678,16 +3700,16 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C2" t="s">
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E2" s="20">
         <v>43800</v>
@@ -3698,16 +3720,16 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" t="s">
         <v>64</v>
-      </c>
-      <c r="C3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" t="s">
-        <v>63</v>
       </c>
       <c r="E3" s="20">
         <v>43800</v>
@@ -3718,16 +3740,16 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C4" t="s">
         <v>0</v>
       </c>
       <c r="D4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E4" s="20">
         <v>43831</v>
@@ -3738,16 +3760,16 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" t="s">
         <v>64</v>
-      </c>
-      <c r="C5" t="s">
-        <v>0</v>
-      </c>
-      <c r="D5" t="s">
-        <v>63</v>
       </c>
       <c r="E5" s="20">
         <v>43831</v>
@@ -3758,16 +3780,16 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B6" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C6" t="s">
         <v>0</v>
       </c>
       <c r="D6" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E6" s="20">
         <v>43862</v>
@@ -3778,16 +3800,16 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D7" t="s">
         <v>64</v>
-      </c>
-      <c r="C7" t="s">
-        <v>0</v>
-      </c>
-      <c r="D7" t="s">
-        <v>63</v>
       </c>
       <c r="E7" s="20">
         <v>43862</v>
@@ -3798,16 +3820,16 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B8" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C8" t="s">
         <v>0</v>
       </c>
       <c r="D8" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E8" s="20">
         <v>43891</v>
@@ -3818,16 +3840,16 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B9" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D9" t="s">
         <v>64</v>
-      </c>
-      <c r="C9" t="s">
-        <v>0</v>
-      </c>
-      <c r="D9" t="s">
-        <v>63</v>
       </c>
       <c r="E9" s="20">
         <v>43891</v>
@@ -3838,16 +3860,16 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B10" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C10" t="s">
         <v>0</v>
       </c>
       <c r="D10" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E10" s="20">
         <v>43922</v>
@@ -3858,16 +3880,16 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B11" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D11" t="s">
         <v>64</v>
-      </c>
-      <c r="C11" t="s">
-        <v>0</v>
-      </c>
-      <c r="D11" t="s">
-        <v>63</v>
       </c>
       <c r="E11" s="20">
         <v>43922</v>
@@ -3878,16 +3900,16 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B12" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C12" t="s">
         <v>0</v>
       </c>
       <c r="D12" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E12" s="20">
         <v>43952</v>
@@ -3898,16 +3920,16 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B13" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C13" t="s">
+        <v>0</v>
+      </c>
+      <c r="D13" t="s">
         <v>64</v>
-      </c>
-      <c r="C13" t="s">
-        <v>0</v>
-      </c>
-      <c r="D13" t="s">
-        <v>63</v>
       </c>
       <c r="E13" s="20">
         <v>43952</v>
@@ -3918,16 +3940,16 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B14" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C14" t="s">
         <v>1</v>
       </c>
       <c r="D14" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E14" s="20">
         <v>43983</v>
@@ -3938,16 +3960,16 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C15" t="s">
         <v>1</v>
       </c>
       <c r="D15" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E15" s="20">
         <v>43983</v>
@@ -3958,16 +3980,16 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B16" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C16" t="s">
         <v>1</v>
       </c>
       <c r="D16" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E16" s="20">
         <v>44105</v>
@@ -3978,16 +4000,16 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C17" t="s">
         <v>1</v>
       </c>
       <c r="D17" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E17" s="20">
         <v>44105</v>
@@ -4022,13 +4044,13 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B1" t="s">
         <v>48</v>
       </c>
       <c r="C1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D1" t="s">
         <v>49</v>
@@ -4045,7 +4067,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D2" s="20">
         <v>43770</v>
@@ -4056,13 +4078,13 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>66</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>65</v>
       </c>
       <c r="D3" s="20">
         <v>43770</v>
@@ -4073,13 +4095,13 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D4" s="20">
         <v>43770</v>
@@ -4090,13 +4112,13 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D5" s="20">
         <v>43770</v>
@@ -4107,13 +4129,13 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D6" s="20">
         <v>43770</v>
@@ -4124,13 +4146,13 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D7" s="20">
         <v>43770</v>
@@ -4141,13 +4163,13 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D8" s="20">
         <v>43770</v>
@@ -4158,13 +4180,13 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D9" s="20">
         <v>43770</v>
@@ -4175,13 +4197,13 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D10" s="20">
         <v>43770</v>
@@ -4192,13 +4214,13 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D11" s="20">
         <v>43770</v>
@@ -4209,13 +4231,13 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D12" s="20">
         <v>43770</v>
@@ -4232,7 +4254,7 @@
         <v>0</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D14" s="20">
         <v>43800</v>
@@ -4251,13 +4273,13 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>66</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>65</v>
       </c>
       <c r="D15" s="20">
         <v>43800</v>
@@ -4276,13 +4298,13 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" s="10" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D16" s="20">
         <v>43800</v>
@@ -4301,13 +4323,13 @@
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D17" s="20">
         <v>43800</v>
@@ -4326,13 +4348,13 @@
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D18" s="20">
         <v>43800</v>
@@ -4351,13 +4373,13 @@
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" s="10" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D19" s="20">
         <v>43800</v>
@@ -4376,13 +4398,13 @@
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" s="10" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D20" s="20">
         <v>43800</v>
@@ -4397,13 +4419,13 @@
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D21" s="20">
         <v>43800</v>
@@ -4418,13 +4440,13 @@
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D22" s="20">
         <v>43800</v>
@@ -4439,13 +4461,13 @@
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D23" s="20">
         <v>43800</v>
@@ -4460,13 +4482,13 @@
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D24" s="20">
         <v>43800</v>
@@ -4498,7 +4520,7 @@
         <v>0</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D26" s="20">
         <v>43831</v>
@@ -4507,13 +4529,13 @@
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C27" s="3" t="s">
         <v>66</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>65</v>
       </c>
       <c r="D27" s="20">
         <v>43831</v>
@@ -4524,13 +4546,13 @@
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" s="10" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D28" s="20">
         <v>43831</v>
@@ -4542,13 +4564,13 @@
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D29" s="20">
         <v>43831</v>
@@ -4560,13 +4582,13 @@
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D30" s="20">
         <v>43831</v>
@@ -4579,13 +4601,13 @@
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31" s="10" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D31" s="20">
         <v>43831</v>
@@ -4597,13 +4619,13 @@
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32" s="10" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D32" s="20">
         <v>43831</v>
@@ -4615,13 +4637,13 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D33" s="20">
         <v>43831</v>
@@ -4633,13 +4655,13 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D34" s="20">
         <v>43831</v>
@@ -4651,13 +4673,13 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D35" s="20">
         <v>43831</v>
@@ -4668,13 +4690,13 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D36" s="20">
         <v>43831</v>
@@ -4696,7 +4718,7 @@
         <v>0</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D38" s="20">
         <v>43862</v>
@@ -4705,13 +4727,13 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C39" s="3" t="s">
         <v>66</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>65</v>
       </c>
       <c r="D39" s="20">
         <v>43862</v>
@@ -4722,13 +4744,13 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" s="10" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D40" s="20">
         <v>43862</v>
@@ -4739,13 +4761,13 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B41" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D41" s="20">
         <v>43862</v>
@@ -4756,13 +4778,13 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B42" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D42" s="20">
         <v>43862</v>
@@ -4773,13 +4795,13 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" s="10" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B43" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D43" s="20">
         <v>43862</v>
@@ -4790,13 +4812,13 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" s="10" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B44" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D44" s="20">
         <v>43862</v>
@@ -4807,13 +4829,13 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B45" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D45" s="20">
         <v>43862</v>
@@ -4824,13 +4846,13 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B46" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D46" s="20">
         <v>43862</v>
@@ -4841,13 +4863,13 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B47" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D47" s="20">
         <v>43862</v>
@@ -4858,13 +4880,13 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B48" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D48" s="20">
         <v>43862</v>
@@ -4886,7 +4908,7 @@
         <v>0</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D50" s="20">
         <v>43891</v>
@@ -4895,13 +4917,13 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C51" s="3" t="s">
         <v>66</v>
-      </c>
-      <c r="B51" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C51" s="3" t="s">
-        <v>65</v>
       </c>
       <c r="D51" s="20">
         <v>43891</v>
@@ -4912,13 +4934,13 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" s="10" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B52" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D52" s="20">
         <v>43891</v>
@@ -4929,13 +4951,13 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B53" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D53" s="20">
         <v>43891</v>
@@ -4946,13 +4968,13 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B54" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D54" s="20">
         <v>43891</v>
@@ -4963,13 +4985,13 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" s="10" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B55" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D55" s="20">
         <v>43891</v>
@@ -4980,13 +5002,13 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" s="10" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B56" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D56" s="20">
         <v>43891</v>
@@ -4997,13 +5019,13 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B57" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D57" s="20">
         <v>43891</v>
@@ -5014,13 +5036,13 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B58" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D58" s="20">
         <v>43891</v>
@@ -5031,13 +5053,13 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B59" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D59" s="20">
         <v>43891</v>
@@ -5048,13 +5070,13 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B60" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D60" s="20">
         <v>43891</v>
@@ -5076,7 +5098,7 @@
         <v>0</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D62" s="20">
         <v>43922</v>
@@ -5085,13 +5107,13 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C63" s="3" t="s">
         <v>66</v>
-      </c>
-      <c r="B63" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C63" s="3" t="s">
-        <v>65</v>
       </c>
       <c r="D63" s="20">
         <v>43922</v>
@@ -5102,13 +5124,13 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" s="10" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B64" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D64" s="20">
         <v>43922</v>
@@ -5119,13 +5141,13 @@
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B65" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D65" s="20">
         <v>43922</v>
@@ -5136,13 +5158,13 @@
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B66" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D66" s="20">
         <v>43922</v>
@@ -5153,13 +5175,13 @@
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" s="10" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B67" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D67" s="20">
         <v>43922</v>
@@ -5170,13 +5192,13 @@
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" s="10" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B68" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D68" s="20">
         <v>43922</v>
@@ -5187,13 +5209,13 @@
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B69" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D69" s="20">
         <v>43922</v>
@@ -5204,13 +5226,13 @@
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B70" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D70" s="20">
         <v>43922</v>
@@ -5221,13 +5243,13 @@
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B71" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D71" s="20">
         <v>43922</v>
@@ -5238,13 +5260,13 @@
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B72" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D72" s="20">
         <v>43922</v>
@@ -5266,7 +5288,7 @@
         <v>0</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D74" s="20">
         <v>43952</v>
@@ -5275,13 +5297,13 @@
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75" s="10" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B75" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D75" s="20">
         <v>43952</v>
@@ -5292,13 +5314,13 @@
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" s="10" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B76" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D76" s="20">
         <v>43952</v>
@@ -5309,13 +5331,13 @@
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B77" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D77" s="20">
         <v>43952</v>
@@ -5326,13 +5348,13 @@
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B78" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D78" s="20">
         <v>43952</v>
@@ -5343,13 +5365,13 @@
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79" s="10" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B79" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D79" s="20">
         <v>43952</v>
@@ -5360,13 +5382,13 @@
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80" s="10" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B80" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D80" s="20">
         <v>43952</v>
@@ -5377,13 +5399,13 @@
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B81" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D81" s="20">
         <v>43952</v>
@@ -5394,13 +5416,13 @@
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B82" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D82" s="20">
         <v>43952</v>
@@ -5411,13 +5433,13 @@
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B83" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D83" s="20">
         <v>43952</v>
@@ -5428,13 +5450,13 @@
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B84" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D84" s="20">
         <v>43952</v>
@@ -5449,7 +5471,7 @@
         <v>1</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D86" s="20">
         <v>43983</v>
@@ -5458,13 +5480,13 @@
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87" s="10" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B87" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D87" s="20">
         <v>43983</v>
@@ -5475,13 +5497,13 @@
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88" s="10" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B88" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D88" s="20">
         <v>43983</v>
@@ -5492,13 +5514,13 @@
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B89" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D89" s="20">
         <v>43983</v>
@@ -5509,13 +5531,13 @@
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B90" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D90" s="20">
         <v>43983</v>
@@ -5526,13 +5548,13 @@
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91" s="10" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B91" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D91" s="20">
         <v>43983</v>
@@ -5543,13 +5565,13 @@
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92" s="10" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B92" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D92" s="20">
         <v>43983</v>
@@ -5560,13 +5582,13 @@
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B93" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D93" s="20">
         <v>43983</v>
@@ -5577,13 +5599,13 @@
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B94" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D94" s="20">
         <v>43983</v>
@@ -5594,13 +5616,13 @@
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B95" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D95" s="20">
         <v>43983</v>
@@ -5611,13 +5633,13 @@
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B96" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D96" s="20">
         <v>43983</v>
@@ -5632,7 +5654,7 @@
         <v>1</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D98" s="20">
         <v>44105</v>
@@ -5641,13 +5663,13 @@
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A99" s="10" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B99" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D99" s="20">
         <v>44105</v>
@@ -5658,13 +5680,13 @@
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A100" s="10" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B100" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D100" s="20">
         <v>44105</v>
@@ -5675,13 +5697,13 @@
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A101" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B101" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D101" s="20">
         <v>44105</v>
@@ -5692,13 +5714,13 @@
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A102" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B102" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D102" s="20">
         <v>44105</v>
@@ -5709,13 +5731,13 @@
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A103" s="10" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B103" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D103" s="20">
         <v>44105</v>
@@ -5726,13 +5748,13 @@
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A104" s="10" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B104" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D104" s="20">
         <v>44105</v>
@@ -5743,13 +5765,13 @@
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A105" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B105" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D105" s="20">
         <v>44105</v>
@@ -5760,13 +5782,13 @@
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A106" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B106" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D106" s="20">
         <v>44105</v>
@@ -5777,13 +5799,13 @@
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A107" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B107" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D107" s="20">
         <v>44105</v>
@@ -5794,13 +5816,13 @@
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A108" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B108" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D108" s="20">
         <v>44105</v>
@@ -5839,12 +5861,12 @@
         <v>49</v>
       </c>
       <c r="D1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
@@ -5858,7 +5880,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B3" t="s">
         <v>0</v>
@@ -5872,7 +5894,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B4" t="s">
         <v>0</v>
@@ -5886,7 +5908,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B5" t="s">
         <v>0</v>
@@ -5900,7 +5922,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B6" t="s">
         <v>0</v>
@@ -5929,7 +5951,7 @@
     <row r="8" spans="1:4" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B9" t="s">
         <v>0</v>
@@ -5943,7 +5965,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B10" t="s">
         <v>0</v>
@@ -5957,7 +5979,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B11" t="s">
         <v>0</v>
@@ -5971,7 +5993,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B12" t="s">
         <v>0</v>
@@ -5985,7 +6007,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B13" t="s">
         <v>0</v>
@@ -6014,7 +6036,7 @@
     <row r="15" spans="1:4" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B16" t="s">
         <v>0</v>
@@ -6028,7 +6050,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B17" t="s">
         <v>0</v>
@@ -6042,7 +6064,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B18" t="s">
         <v>0</v>
@@ -6056,7 +6078,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B19" t="s">
         <v>0</v>
@@ -6070,7 +6092,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B20" t="s">
         <v>0</v>
@@ -6099,7 +6121,7 @@
     <row r="22" spans="1:4" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B23" t="s">
         <v>0</v>
@@ -6113,7 +6135,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B24" t="s">
         <v>0</v>
@@ -6127,7 +6149,7 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B25" t="s">
         <v>0</v>
@@ -6141,7 +6163,7 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B26" t="s">
         <v>0</v>
@@ -6155,7 +6177,7 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B27" t="s">
         <v>0</v>
@@ -6183,7 +6205,7 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B30" t="s">
         <v>0</v>
@@ -6197,7 +6219,7 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="25" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B31" t="s">
         <v>0</v>
@@ -6211,7 +6233,7 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="26" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B32" t="s">
         <v>0</v>
@@ -6225,7 +6247,7 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="25" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B33" t="s">
         <v>0</v>
@@ -6239,7 +6261,7 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="26" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B34" t="s">
         <v>0</v>
@@ -6267,7 +6289,7 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B37" t="s">
         <v>0</v>
@@ -6281,7 +6303,7 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="25" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B38" t="s">
         <v>0</v>
@@ -6295,7 +6317,7 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="26" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B39" t="s">
         <v>0</v>
@@ -6309,7 +6331,7 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="25" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B40" t="s">
         <v>0</v>
@@ -6323,7 +6345,7 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" s="26" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B41" t="s">
         <v>0</v>
@@ -6351,7 +6373,7 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B44" t="s">
         <v>1</v>
@@ -6365,7 +6387,7 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="25" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B45" t="s">
         <v>1</v>
@@ -6379,7 +6401,7 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" s="26" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B46" t="s">
         <v>1</v>
@@ -6393,7 +6415,7 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" s="25" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B47" t="s">
         <v>1</v>
@@ -6407,7 +6429,7 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" s="26" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B48" t="s">
         <v>1</v>
@@ -6435,7 +6457,7 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B51" t="s">
         <v>1</v>
@@ -6449,7 +6471,7 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" s="25" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B52" t="s">
         <v>1</v>
@@ -6463,7 +6485,7 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" s="26" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B53" t="s">
         <v>1</v>
@@ -6477,7 +6499,7 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" s="25" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B54" t="s">
         <v>1</v>
@@ -6491,7 +6513,7 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" s="26" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B55" t="s">
         <v>1</v>

--- a/reformat.xlsx
+++ b/reformat.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/teresewang/Desktop/excel_project-/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC07CF55-0D7A-574B-B0AF-E28909EA71FD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF60CA6C-382B-A742-838B-9E2C0C8F1203}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15580" yWindow="1060" windowWidth="16180" windowHeight="16820" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3360" yWindow="460" windowWidth="16180" windowHeight="16820" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AUM and Account metrics" sheetId="1" r:id="rId1"/>
@@ -648,7 +648,7 @@
     <xf numFmtId="166" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="166" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -688,14 +688,12 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="2" fillId="3" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="3" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="cd1" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
@@ -988,18 +986,18 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9" style="29" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="48.1640625" style="29" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.5" style="29" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="30" style="29" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="30" style="29" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="30" style="29" customWidth="1"/>
-    <col min="7" max="7" width="22" style="29" bestFit="1" customWidth="1"/>
-    <col min="8" max="11" width="22" style="29" customWidth="1" outlineLevel="1"/>
-    <col min="12" max="12" width="3.33203125" style="29" customWidth="1"/>
-    <col min="13" max="13" width="14.33203125" style="29" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.5" style="29" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="17.5" style="29" customWidth="1"/>
+    <col min="1" max="1" width="9" style="31" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="48.1640625" style="31" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.5" style="31" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="30" style="31" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30" style="31" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="30" style="31" customWidth="1"/>
+    <col min="7" max="7" width="22" style="31" bestFit="1" customWidth="1"/>
+    <col min="8" max="11" width="22" style="31" customWidth="1" outlineLevel="1"/>
+    <col min="12" max="12" width="3.33203125" style="31" customWidth="1"/>
+    <col min="13" max="13" width="14.33203125" style="31" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.5" style="31" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.5" style="31" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.2">
@@ -1803,7 +1801,7 @@
       <c r="I30" s="17"/>
       <c r="J30" s="17"/>
       <c r="K30" s="17"/>
-      <c r="L30" s="27"/>
+      <c r="L30" s="32"/>
       <c r="M30" s="3"/>
       <c r="N30" s="3"/>
     </row>
@@ -1813,7 +1811,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.2">
       <c r="L32" s="18"/>
-      <c r="M32" s="27"/>
+      <c r="M32" s="32"/>
     </row>
     <row r="40" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L40" s="18"/>
@@ -1835,20 +1833,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K164"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A71" workbookViewId="0">
-      <selection activeCell="F107" sqref="F107"/>
+    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
+      <selection activeCell="C74" sqref="C74:C84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="3" width="23.83203125" style="29" customWidth="1"/>
-    <col min="4" max="5" width="22" style="29" customWidth="1" outlineLevel="1"/>
-    <col min="6" max="6" width="38.33203125" style="29" customWidth="1" outlineLevel="1"/>
-    <col min="7" max="7" width="22" style="29" customWidth="1" outlineLevel="1"/>
-    <col min="8" max="8" width="24.83203125" style="29" customWidth="1"/>
-    <col min="9" max="9" width="14.33203125" style="29" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.5" style="29" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.5" style="29" customWidth="1"/>
+    <col min="1" max="3" width="23.83203125" style="31" customWidth="1"/>
+    <col min="4" max="5" width="22" style="31" customWidth="1" outlineLevel="1"/>
+    <col min="6" max="6" width="38.33203125" style="31" customWidth="1" outlineLevel="1"/>
+    <col min="7" max="7" width="22" style="31" customWidth="1" outlineLevel="1"/>
+    <col min="8" max="8" width="24.83203125" style="31" customWidth="1"/>
+    <col min="9" max="9" width="14.33203125" style="31" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.5" style="31" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.5" style="31" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
@@ -1881,7 +1879,7 @@
       <c r="D2" s="20">
         <v>43770</v>
       </c>
-      <c r="E2" s="27">
+      <c r="E2" s="32">
         <v>916912208.88699555</v>
       </c>
     </row>
@@ -1898,7 +1896,7 @@
       <c r="D3" s="20">
         <v>43770</v>
       </c>
-      <c r="E3" s="27">
+      <c r="E3" s="32">
         <v>246.21076233183859</v>
       </c>
       <c r="H3" s="1"/>
@@ -1918,7 +1916,7 @@
       <c r="D4" s="20">
         <v>43770</v>
       </c>
-      <c r="E4" s="27">
+      <c r="E4" s="32">
         <v>422199.51186524669</v>
       </c>
     </row>
@@ -1935,7 +1933,7 @@
       <c r="D5" s="20">
         <v>43770</v>
       </c>
-      <c r="E5" s="27">
+      <c r="E5" s="32">
         <v>1262169275.196296</v>
       </c>
     </row>
@@ -1952,7 +1950,7 @@
       <c r="D6" s="20">
         <v>43770</v>
       </c>
-      <c r="E6" s="27">
+      <c r="E6" s="32">
         <v>338.91975308641969</v>
       </c>
     </row>
@@ -1969,7 +1967,7 @@
       <c r="D7" s="20">
         <v>43770</v>
       </c>
-      <c r="E7" s="27">
+      <c r="E7" s="32">
         <v>581175.8712712964</v>
       </c>
     </row>
@@ -1986,7 +1984,7 @@
       <c r="D8" s="20">
         <v>43770</v>
       </c>
-      <c r="E8" s="27">
+      <c r="E8" s="32">
         <v>5526254664.3729734</v>
       </c>
     </row>
@@ -2003,7 +2001,7 @@
       <c r="D9" s="20">
         <v>43770</v>
       </c>
-      <c r="E9" s="27">
+      <c r="E9" s="32">
         <v>1483.918918918919</v>
       </c>
     </row>
@@ -2020,7 +2018,7 @@
       <c r="D10" s="20">
         <v>43770</v>
       </c>
-      <c r="E10" s="27">
+      <c r="E10" s="32">
         <v>2544607.8688094602</v>
       </c>
     </row>
@@ -2037,7 +2035,7 @@
       <c r="D11" s="20">
         <v>43770</v>
       </c>
-      <c r="E11" s="27">
+      <c r="E11" s="32">
         <v>129710.9914918033</v>
       </c>
     </row>
@@ -2054,7 +2052,7 @@
       <c r="D12" s="20">
         <v>43770</v>
       </c>
-      <c r="E12" s="27">
+      <c r="E12" s="32">
         <v>234314.04540296301</v>
       </c>
     </row>
@@ -2071,7 +2069,7 @@
       <c r="D14" s="20">
         <v>43800</v>
       </c>
-      <c r="E14" s="27">
+      <c r="E14" s="32">
         <v>915934414.49195552</v>
       </c>
     </row>
@@ -2088,7 +2086,7 @@
       <c r="D15" s="20">
         <v>43800</v>
       </c>
-      <c r="E15" s="27">
+      <c r="E15" s="32">
         <v>246.28</v>
       </c>
     </row>
@@ -2105,7 +2103,7 @@
       <c r="D16" s="20">
         <v>43800</v>
       </c>
-      <c r="E16" s="28">
+      <c r="E16" s="27">
         <v>5346147.5758453337</v>
       </c>
     </row>
@@ -2122,7 +2120,7 @@
       <c r="D17" s="20">
         <v>43800</v>
       </c>
-      <c r="E17" s="27">
+      <c r="E17" s="32">
         <v>1272131131.238827</v>
       </c>
     </row>
@@ -2139,7 +2137,7 @@
       <c r="D18" s="20">
         <v>43800</v>
       </c>
-      <c r="E18" s="27">
+      <c r="E18" s="32">
         <v>342.05555555555549</v>
       </c>
     </row>
@@ -2156,7 +2154,7 @@
       <c r="D19" s="20">
         <v>43800</v>
       </c>
-      <c r="E19" s="28">
+      <c r="E19" s="27">
         <v>7425204.9664518526</v>
       </c>
     </row>
@@ -2173,7 +2171,7 @@
       <c r="D20" s="20">
         <v>43800</v>
       </c>
-      <c r="E20" s="28">
+      <c r="E20" s="27">
         <v>3271194337.4712701</v>
       </c>
     </row>
@@ -2190,7 +2188,7 @@
       <c r="D21" s="20">
         <v>43800</v>
       </c>
-      <c r="E21" s="28">
+      <c r="E21" s="27">
         <v>879.57142857142856</v>
       </c>
     </row>
@@ -2207,7 +2205,7 @@
       <c r="D22" s="20">
         <v>43800</v>
       </c>
-      <c r="E22" s="28">
+      <c r="E22" s="27">
         <v>19093384.199447598</v>
       </c>
     </row>
@@ -2224,7 +2222,7 @@
       <c r="D23" s="20">
         <v>43800</v>
       </c>
-      <c r="E23" s="28">
+      <c r="E23" s="27">
         <v>115390.5625657143</v>
       </c>
     </row>
@@ -2241,7 +2239,7 @@
       <c r="D24" s="20">
         <v>43800</v>
       </c>
-      <c r="E24" s="27">
+      <c r="E24" s="32">
         <v>234600.5290718519</v>
       </c>
     </row>
@@ -2341,7 +2339,7 @@
       </c>
       <c r="F30" s="17"/>
       <c r="G30" s="17"/>
-      <c r="H30" s="27"/>
+      <c r="H30" s="32"/>
       <c r="I30" s="3"/>
       <c r="J30" s="3"/>
     </row>
@@ -2381,7 +2379,7 @@
         <v>5600792316.6273651</v>
       </c>
       <c r="H32" s="18"/>
-      <c r="I32" s="27"/>
+      <c r="I32" s="32"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
@@ -2452,7 +2450,7 @@
       </c>
     </row>
     <row r="37" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E37" s="27"/>
+      <c r="E37" s="32"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
@@ -2832,7 +2830,7 @@
       </c>
     </row>
     <row r="61" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E61" s="27"/>
+      <c r="E61" s="32"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
@@ -2864,7 +2862,7 @@
       <c r="D63" s="20">
         <v>43922</v>
       </c>
-      <c r="E63" s="27">
+      <c r="E63" s="32">
         <v>254.9727272727273</v>
       </c>
     </row>
@@ -2915,7 +2913,7 @@
       <c r="D66" s="20">
         <v>43922</v>
       </c>
-      <c r="E66" s="27">
+      <c r="E66" s="32">
         <v>304.85869565217388</v>
       </c>
     </row>
@@ -2966,7 +2964,7 @@
       <c r="D69" s="20">
         <v>43922</v>
       </c>
-      <c r="E69" s="27">
+      <c r="E69" s="32">
         <v>1558.166666666667</v>
       </c>
     </row>
@@ -3029,7 +3027,7 @@
       <c r="B74" t="s">
         <v>52</v>
       </c>
-      <c r="C74" s="29" t="s">
+      <c r="C74" s="31" t="s">
         <v>1</v>
       </c>
       <c r="D74" s="20">
@@ -3046,13 +3044,13 @@
       <c r="B75" t="s">
         <v>52</v>
       </c>
-      <c r="C75" s="29" t="s">
+      <c r="C75" s="31" t="s">
         <v>1</v>
       </c>
       <c r="D75" s="20">
         <v>43952</v>
       </c>
-      <c r="E75" s="27">
+      <c r="E75" s="32">
         <v>256.4818181818182</v>
       </c>
     </row>
@@ -3063,7 +3061,7 @@
       <c r="B76" t="s">
         <v>52</v>
       </c>
-      <c r="C76" s="29" t="s">
+      <c r="C76" s="31" t="s">
         <v>1</v>
       </c>
       <c r="D76" s="20">
@@ -3080,7 +3078,7 @@
       <c r="B77" t="s">
         <v>55</v>
       </c>
-      <c r="C77" s="29" t="s">
+      <c r="C77" s="31" t="s">
         <v>1</v>
       </c>
       <c r="D77" s="20">
@@ -3097,13 +3095,13 @@
       <c r="B78" t="s">
         <v>55</v>
       </c>
-      <c r="C78" s="29" t="s">
+      <c r="C78" s="31" t="s">
         <v>1</v>
       </c>
       <c r="D78" s="20">
         <v>43952</v>
       </c>
-      <c r="E78" s="27">
+      <c r="E78" s="32">
         <v>308.33879781420762</v>
       </c>
     </row>
@@ -3114,7 +3112,7 @@
       <c r="B79" t="s">
         <v>55</v>
       </c>
-      <c r="C79" s="29" t="s">
+      <c r="C79" s="31" t="s">
         <v>1</v>
       </c>
       <c r="D79" s="20">
@@ -3131,7 +3129,7 @@
       <c r="B80" t="s">
         <v>56</v>
       </c>
-      <c r="C80" s="29" t="s">
+      <c r="C80" s="31" t="s">
         <v>1</v>
       </c>
       <c r="D80" s="20">
@@ -3148,13 +3146,13 @@
       <c r="B81" t="s">
         <v>56</v>
       </c>
-      <c r="C81" s="29" t="s">
+      <c r="C81" s="31" t="s">
         <v>1</v>
       </c>
       <c r="D81" s="20">
         <v>43952</v>
       </c>
-      <c r="E81" s="27">
+      <c r="E81" s="32">
         <v>1525.0270270270271</v>
       </c>
     </row>
@@ -3165,7 +3163,7 @@
       <c r="B82" t="s">
         <v>56</v>
       </c>
-      <c r="C82" s="29" t="s">
+      <c r="C82" s="31" t="s">
         <v>1</v>
       </c>
       <c r="D82" s="20">
@@ -3182,13 +3180,13 @@
       <c r="B83" t="s">
         <v>56</v>
       </c>
-      <c r="C83" s="29" t="s">
+      <c r="C83" s="31" t="s">
         <v>1</v>
       </c>
       <c r="D83" s="20">
         <v>43952</v>
       </c>
-      <c r="E83" s="30">
+      <c r="E83" s="28">
         <v>133818.68599135129</v>
       </c>
     </row>
@@ -3199,18 +3197,18 @@
       <c r="B84" t="s">
         <v>55</v>
       </c>
-      <c r="C84" s="29" t="s">
+      <c r="C84" s="31" t="s">
         <v>1</v>
       </c>
       <c r="D84" s="20">
         <v>43952</v>
       </c>
-      <c r="E84" s="30">
+      <c r="E84" s="28">
         <v>215574.55275540991</v>
       </c>
     </row>
     <row r="85" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D85" s="32"/>
+      <c r="D85" s="30"/>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
@@ -3222,7 +3220,7 @@
       <c r="C86" t="s">
         <v>1</v>
       </c>
-      <c r="D86" s="32">
+      <c r="D86" s="30">
         <v>44105</v>
       </c>
       <c r="E86" s="22">
@@ -3239,10 +3237,10 @@
       <c r="C87" t="s">
         <v>1</v>
       </c>
-      <c r="D87" s="32">
+      <c r="D87" s="30">
         <v>44105</v>
       </c>
-      <c r="E87" s="27" t="s">
+      <c r="E87" s="32" t="s">
         <v>58</v>
       </c>
     </row>
@@ -3256,7 +3254,7 @@
       <c r="C88" t="s">
         <v>1</v>
       </c>
-      <c r="D88" s="32">
+      <c r="D88" s="30">
         <v>44105</v>
       </c>
       <c r="E88" s="23">
@@ -3273,7 +3271,7 @@
       <c r="C89" t="s">
         <v>1</v>
       </c>
-      <c r="D89" s="32">
+      <c r="D89" s="30">
         <v>44105</v>
       </c>
       <c r="E89" s="23">
@@ -3290,10 +3288,10 @@
       <c r="C90" t="s">
         <v>1</v>
       </c>
-      <c r="D90" s="32">
+      <c r="D90" s="30">
         <v>44105</v>
       </c>
-      <c r="E90" s="27" t="s">
+      <c r="E90" s="32" t="s">
         <v>58</v>
       </c>
     </row>
@@ -3307,7 +3305,7 @@
       <c r="C91" t="s">
         <v>1</v>
       </c>
-      <c r="D91" s="32">
+      <c r="D91" s="30">
         <v>44105</v>
       </c>
       <c r="E91" s="23">
@@ -3324,7 +3322,7 @@
       <c r="C92" t="s">
         <v>1</v>
       </c>
-      <c r="D92" s="32">
+      <c r="D92" s="30">
         <v>44105</v>
       </c>
       <c r="E92" s="23">
@@ -3341,10 +3339,10 @@
       <c r="C93" t="s">
         <v>1</v>
       </c>
-      <c r="D93" s="32">
+      <c r="D93" s="30">
         <v>44105</v>
       </c>
-      <c r="E93" s="27" t="s">
+      <c r="E93" s="32" t="s">
         <v>58</v>
       </c>
     </row>
@@ -3358,7 +3356,7 @@
       <c r="C94" t="s">
         <v>1</v>
       </c>
-      <c r="D94" s="32">
+      <c r="D94" s="30">
         <v>44105</v>
       </c>
       <c r="E94" s="23">
@@ -3375,7 +3373,7 @@
       <c r="C95" t="s">
         <v>1</v>
       </c>
-      <c r="D95" s="32">
+      <c r="D95" s="30">
         <v>44105</v>
       </c>
       <c r="E95" s="23">
@@ -3392,7 +3390,7 @@
       <c r="C96" t="s">
         <v>1</v>
       </c>
-      <c r="D96" s="32">
+      <c r="D96" s="30">
         <v>44105</v>
       </c>
       <c r="E96" s="23">
@@ -3400,15 +3398,14 @@
       </c>
     </row>
     <row r="97" spans="4:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D97" s="32"/>
-      <c r="E97" s="32"/>
-      <c r="F97" s="33"/>
+      <c r="D97" s="30"/>
+      <c r="E97" s="30"/>
     </row>
     <row r="98" spans="4:6" x14ac:dyDescent="0.2">
       <c r="F98" s="22"/>
     </row>
     <row r="99" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="F99" s="34"/>
+      <c r="F99" s="32"/>
     </row>
     <row r="100" spans="4:6" x14ac:dyDescent="0.2">
       <c r="F100" s="23"/>
@@ -3417,7 +3414,7 @@
       <c r="F101" s="23"/>
     </row>
     <row r="102" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="F102" s="34"/>
+      <c r="F102" s="32"/>
     </row>
     <row r="103" spans="4:6" x14ac:dyDescent="0.2">
       <c r="F103" s="23"/>
@@ -3426,7 +3423,7 @@
       <c r="F104" s="23"/>
     </row>
     <row r="105" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="F105" s="34"/>
+      <c r="F105" s="32"/>
     </row>
     <row r="106" spans="4:6" x14ac:dyDescent="0.2">
       <c r="F106" s="23"/>
@@ -3438,215 +3435,199 @@
       <c r="F108" s="23"/>
     </row>
     <row r="109" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D109" s="32"/>
-      <c r="E109" s="32"/>
-      <c r="F109" s="33"/>
+      <c r="D109" s="30"/>
+      <c r="E109" s="30"/>
     </row>
     <row r="110" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D110" s="32"/>
-      <c r="E110" s="32"/>
-      <c r="F110" s="33"/>
+      <c r="D110" s="30"/>
+      <c r="E110" s="30"/>
     </row>
     <row r="111" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D111" s="32"/>
-      <c r="E111" s="32"/>
-      <c r="F111" s="33"/>
+      <c r="D111" s="30"/>
+      <c r="E111" s="30"/>
     </row>
     <row r="112" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D112" s="32"/>
-      <c r="E112" s="32"/>
-      <c r="F112" s="33"/>
-    </row>
-    <row r="113" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D113" s="32"/>
-      <c r="E113" s="32"/>
-      <c r="F113" s="33"/>
-    </row>
-    <row r="114" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D114" s="32"/>
-      <c r="E114" s="32"/>
-      <c r="F114" s="33"/>
-    </row>
-    <row r="115" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D115" s="32"/>
-      <c r="E115" s="32"/>
-      <c r="F115" s="33"/>
-    </row>
-    <row r="116" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D116" s="32"/>
-      <c r="E116" s="32"/>
-      <c r="F116" s="33"/>
-    </row>
-    <row r="117" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D117" s="32"/>
-      <c r="E117" s="32"/>
-      <c r="F117" s="33"/>
-    </row>
-    <row r="118" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D118" s="32"/>
-      <c r="E118" s="32"/>
-      <c r="F118" s="33"/>
-    </row>
-    <row r="119" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D119" s="32"/>
-      <c r="E119" s="32"/>
-      <c r="F119" s="33"/>
-    </row>
-    <row r="120" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D120" s="32"/>
-      <c r="E120" s="32"/>
-      <c r="F120" s="33"/>
-    </row>
-    <row r="121" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D121" s="32"/>
-      <c r="E121" s="32"/>
-      <c r="F121" s="33"/>
-    </row>
-    <row r="122" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D122" s="32"/>
-      <c r="E122" s="32"/>
-      <c r="F122" s="33"/>
-    </row>
-    <row r="123" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D123" s="32"/>
-      <c r="E123" s="32"/>
-      <c r="F123" s="33"/>
-    </row>
-    <row r="124" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D124" s="32"/>
-      <c r="E124" s="32"/>
-      <c r="F124" s="33"/>
-    </row>
-    <row r="125" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D125" s="32"/>
-      <c r="E125" s="32"/>
-    </row>
-    <row r="126" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D126" s="32"/>
-      <c r="E126" s="32"/>
-    </row>
-    <row r="127" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D127" s="32"/>
-      <c r="E127" s="32"/>
-    </row>
-    <row r="128" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D128" s="32"/>
-      <c r="E128" s="32"/>
+      <c r="D112" s="30"/>
+      <c r="E112" s="30"/>
+    </row>
+    <row r="113" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D113" s="30"/>
+      <c r="E113" s="30"/>
+    </row>
+    <row r="114" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D114" s="30"/>
+      <c r="E114" s="30"/>
+    </row>
+    <row r="115" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D115" s="30"/>
+      <c r="E115" s="30"/>
+    </row>
+    <row r="116" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D116" s="30"/>
+      <c r="E116" s="30"/>
+    </row>
+    <row r="117" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D117" s="30"/>
+      <c r="E117" s="30"/>
+    </row>
+    <row r="118" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D118" s="30"/>
+      <c r="E118" s="30"/>
+    </row>
+    <row r="119" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D119" s="30"/>
+      <c r="E119" s="30"/>
+    </row>
+    <row r="120" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D120" s="30"/>
+      <c r="E120" s="30"/>
+    </row>
+    <row r="121" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D121" s="30"/>
+      <c r="E121" s="30"/>
+    </row>
+    <row r="122" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D122" s="30"/>
+      <c r="E122" s="30"/>
+    </row>
+    <row r="123" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D123" s="30"/>
+      <c r="E123" s="30"/>
+    </row>
+    <row r="124" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D124" s="30"/>
+      <c r="E124" s="30"/>
+    </row>
+    <row r="125" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D125" s="30"/>
+      <c r="E125" s="30"/>
+    </row>
+    <row r="126" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D126" s="30"/>
+      <c r="E126" s="30"/>
+    </row>
+    <row r="127" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D127" s="30"/>
+      <c r="E127" s="30"/>
+    </row>
+    <row r="128" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D128" s="30"/>
+      <c r="E128" s="30"/>
     </row>
     <row r="129" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D129" s="32"/>
-      <c r="E129" s="32"/>
+      <c r="D129" s="30"/>
+      <c r="E129" s="30"/>
     </row>
     <row r="130" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D130" s="32"/>
-      <c r="E130" s="32"/>
+      <c r="D130" s="30"/>
+      <c r="E130" s="30"/>
     </row>
     <row r="131" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D131" s="32"/>
-      <c r="E131" s="32"/>
+      <c r="D131" s="30"/>
+      <c r="E131" s="30"/>
     </row>
     <row r="132" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D132" s="32"/>
-      <c r="E132" s="32"/>
+      <c r="D132" s="30"/>
+      <c r="E132" s="30"/>
     </row>
     <row r="133" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D133" s="32"/>
-      <c r="E133" s="32"/>
+      <c r="D133" s="30"/>
+      <c r="E133" s="30"/>
     </row>
     <row r="134" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D134" s="32"/>
-      <c r="E134" s="32"/>
+      <c r="D134" s="30"/>
+      <c r="E134" s="30"/>
     </row>
     <row r="135" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D135" s="32"/>
-      <c r="E135" s="32"/>
+      <c r="D135" s="30"/>
+      <c r="E135" s="30"/>
     </row>
     <row r="136" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D136" s="32"/>
+      <c r="D136" s="30"/>
     </row>
     <row r="137" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D137" s="32"/>
+      <c r="D137" s="30"/>
     </row>
     <row r="138" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D138" s="32"/>
+      <c r="D138" s="30"/>
     </row>
     <row r="139" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D139" s="32"/>
+      <c r="D139" s="30"/>
     </row>
     <row r="140" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D140" s="32"/>
+      <c r="D140" s="30"/>
     </row>
     <row r="141" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D141" s="32"/>
+      <c r="D141" s="30"/>
     </row>
     <row r="142" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D142" s="32"/>
+      <c r="D142" s="30"/>
     </row>
     <row r="143" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D143" s="32"/>
+      <c r="D143" s="30"/>
     </row>
     <row r="144" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D144" s="32"/>
+      <c r="D144" s="30"/>
     </row>
     <row r="145" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D145" s="32"/>
+      <c r="D145" s="30"/>
     </row>
     <row r="146" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D146" s="32"/>
+      <c r="D146" s="30"/>
     </row>
     <row r="147" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D147" s="32"/>
+      <c r="D147" s="30"/>
     </row>
     <row r="148" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D148" s="32"/>
+      <c r="D148" s="30"/>
     </row>
     <row r="149" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D149" s="32"/>
+      <c r="D149" s="30"/>
     </row>
     <row r="150" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D150" s="32"/>
+      <c r="D150" s="30"/>
     </row>
     <row r="151" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D151" s="32"/>
+      <c r="D151" s="30"/>
     </row>
     <row r="152" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D152" s="32"/>
+      <c r="D152" s="30"/>
     </row>
     <row r="153" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D153" s="32"/>
+      <c r="D153" s="30"/>
     </row>
     <row r="154" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D154" s="32"/>
+      <c r="D154" s="30"/>
     </row>
     <row r="155" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D155" s="32"/>
+      <c r="D155" s="30"/>
     </row>
     <row r="156" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D156" s="32"/>
+      <c r="D156" s="30"/>
     </row>
     <row r="157" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D157" s="32"/>
+      <c r="D157" s="30"/>
     </row>
     <row r="158" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D158" s="32"/>
+      <c r="D158" s="30"/>
     </row>
     <row r="159" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D159" s="32"/>
+      <c r="D159" s="30"/>
     </row>
     <row r="160" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D160" s="32"/>
+      <c r="D160" s="30"/>
     </row>
     <row r="161" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D161" s="32"/>
+      <c r="D161" s="30"/>
     </row>
     <row r="162" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D162" s="32"/>
+      <c r="D162" s="30"/>
     </row>
     <row r="163" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D163" s="32"/>
+      <c r="D163" s="30"/>
     </row>
     <row r="164" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D164" s="32"/>
+      <c r="D164" s="30"/>
     </row>
   </sheetData>
   <dataValidations count="1">
@@ -3669,13 +3650,13 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="48.6640625" style="29" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="48.6640625" style="29" customWidth="1"/>
-    <col min="3" max="3" width="17.5" style="29" customWidth="1"/>
-    <col min="4" max="4" width="13.5" style="29" customWidth="1"/>
-    <col min="5" max="5" width="11.83203125" style="29" customWidth="1"/>
-    <col min="6" max="6" width="25.5" style="29" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.33203125" style="29" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="48.6640625" style="31" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="48.6640625" style="31" customWidth="1"/>
+    <col min="3" max="3" width="17.5" style="31" customWidth="1"/>
+    <col min="4" max="4" width="13.5" style="31" customWidth="1"/>
+    <col min="5" max="5" width="11.83203125" style="31" customWidth="1"/>
+    <col min="6" max="6" width="25.5" style="31" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.33203125" style="31" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
@@ -4033,13 +4014,13 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="30" style="29" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22" style="29" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22" style="29" customWidth="1"/>
-    <col min="4" max="7" width="22" style="29" customWidth="1" outlineLevel="1"/>
-    <col min="8" max="8" width="31.5" style="29" customWidth="1"/>
-    <col min="9" max="9" width="14.33203125" style="29" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="17.5" style="29" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30" style="31" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22" style="31" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22" style="31" customWidth="1"/>
+    <col min="4" max="7" width="22" style="31" customWidth="1" outlineLevel="1"/>
+    <col min="8" max="8" width="31.5" style="31" customWidth="1"/>
+    <col min="9" max="9" width="14.33203125" style="31" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="17.5" style="31" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
@@ -5627,7 +5608,7 @@
       <c r="D95" s="20">
         <v>43983</v>
       </c>
-      <c r="E95" s="31">
+      <c r="E95" s="29">
         <v>960728.95137999952</v>
       </c>
     </row>
@@ -5844,10 +5825,10 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="49" style="29" customWidth="1"/>
-    <col min="2" max="2" width="19" style="29" customWidth="1"/>
-    <col min="3" max="3" width="14.5" style="29" customWidth="1"/>
-    <col min="4" max="4" width="11.6640625" style="29" customWidth="1"/>
+    <col min="1" max="1" width="49" style="31" customWidth="1"/>
+    <col min="2" max="2" width="19" style="31" customWidth="1"/>
+    <col min="3" max="3" width="14.5" style="31" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" style="31" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
